--- a/hutool-poi/src/test/resources/template.xlsx
+++ b/hutool-poi/src/test/resources/template.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\looll\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C139AB78-0011-4C02-9438-D15507208BEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62851FD4-5508-49C8-9C3E-0A3343268E23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="41496" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19116" yWindow="3000" windowWidth="21756" windowHeight="12120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -43,10 +43,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{.year}-{.month}-{.day}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>转义</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -55,14 +51,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{.user.name}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{.user.age}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>人员信息表</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -71,7 +59,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{.user.area123}</t>
+    <t>{user.name}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{user.age}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{year}-{month}-{day}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{user.area123}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -79,7 +79,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -94,13 +94,26 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -115,7 +128,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -123,6 +136,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -406,7 +421,7 @@
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -418,7 +433,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -429,7 +444,7 @@
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="2" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
@@ -448,24 +463,24 @@
         <v>3</v>
       </c>
       <c r="E3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" t="s">
+      <c r="A4" s="3" t="s">
         <v>8</v>
       </c>
+      <c r="B4" s="4" t="s">
+        <v>9</v>
+      </c>
       <c r="C4" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="D4" t="s">
         <v>11</v>
       </c>
       <c r="E4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/hutool-poi/src/test/resources/template.xlsx
+++ b/hutool-poi/src/test/resources/template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62851FD4-5508-49C8-9C3E-0A3343268E23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC0D74D9-FE25-4825-AA60-A037B40465D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19116" yWindow="3000" windowWidth="21756" windowHeight="12120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19212" yWindow="3708" windowWidth="21756" windowHeight="12120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -116,7 +116,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -124,20 +124,36 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -421,7 +437,7 @@
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection sqref="A1:E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -432,37 +448,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="2" t="s">
         <v>4</v>
       </c>
     </row>
@@ -473,13 +489,13 @@
       <c r="B4" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="2" t="s">
         <v>5</v>
       </c>
     </row>
